--- a/csf314-2023-Marks.xlsx
+++ b/csf314-2023-Marks.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="d\ mmm"/>
     <numFmt numFmtId="165" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <color rgb="FF000000"/>
@@ -122,12 +122,6 @@
       <sz val="12"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF1155CC"/>
-      <sz val="12"/>
-      <u val="single"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -267,10 +261,10 @@
     <xf numFmtId="164" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,11 +545,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -614,10 +608,13 @@
         </is>
       </c>
       <c r="G2" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.2" customHeight="1" thickBot="1">
@@ -642,10 +639,13 @@
         </is>
       </c>
       <c r="G3" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="16.2" customHeight="1" thickBot="1">
@@ -670,10 +670,13 @@
         </is>
       </c>
       <c r="G4" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="16.2" customHeight="1" thickBot="1">
@@ -698,10 +701,13 @@
         </is>
       </c>
       <c r="G5" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.2" customHeight="1" thickBot="1">
@@ -726,10 +732,13 @@
         </is>
       </c>
       <c r="G6" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="16.2" customHeight="1" thickBot="1">
@@ -754,10 +763,13 @@
         </is>
       </c>
       <c r="G7" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="16.2" customHeight="1" thickBot="1">
@@ -782,11 +794,14 @@
         </is>
       </c>
       <c r="G8" s="32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="32" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="16.2" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
@@ -810,10 +825,13 @@
         </is>
       </c>
       <c r="G9" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H9" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="16.2" customHeight="1" thickBot="1">
@@ -838,10 +856,13 @@
         </is>
       </c>
       <c r="G10" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="16.2" customHeight="1" thickBot="1">
@@ -866,11 +887,14 @@
         </is>
       </c>
       <c r="G11" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11" s="32" t="n">
         <v>7</v>
       </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="16.2" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="inlineStr">
@@ -894,10 +918,13 @@
         </is>
       </c>
       <c r="G12" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H12" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.2" customHeight="1" thickBot="1">
@@ -922,10 +949,13 @@
         </is>
       </c>
       <c r="G13" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="16.2" customHeight="1" thickBot="1">
@@ -950,10 +980,13 @@
         </is>
       </c>
       <c r="G14" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H14" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.2" customHeight="1" thickBot="1">
@@ -978,10 +1011,13 @@
         </is>
       </c>
       <c r="G15" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H15" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.2" customHeight="1" thickBot="1">
@@ -1006,10 +1042,13 @@
         </is>
       </c>
       <c r="G16" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H16" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="16.2" customHeight="1" thickBot="1">
@@ -1034,10 +1073,13 @@
         </is>
       </c>
       <c r="G17" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H17" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="16.2" customHeight="1" thickBot="1">
@@ -1062,10 +1104,13 @@
         </is>
       </c>
       <c r="G18" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H18" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="16.2" customHeight="1" thickBot="1">
@@ -1090,10 +1135,13 @@
         </is>
       </c>
       <c r="G19" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="16.2" customHeight="1" thickBot="1">
@@ -1118,10 +1166,13 @@
         </is>
       </c>
       <c r="G20" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H20" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" thickBot="1">
@@ -1146,10 +1197,13 @@
         </is>
       </c>
       <c r="G21" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H21" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" thickBot="1">
@@ -1174,10 +1228,13 @@
         </is>
       </c>
       <c r="G22" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H22" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" thickBot="1">
@@ -1202,10 +1259,13 @@
         </is>
       </c>
       <c r="G23" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" thickBot="1">
@@ -1256,11 +1316,14 @@
         </is>
       </c>
       <c r="G25" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H25" s="32" t="n">
         <v>7</v>
       </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="inlineStr">
@@ -1284,10 +1347,13 @@
         </is>
       </c>
       <c r="G26" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H26" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" thickBot="1">
@@ -1312,10 +1378,13 @@
         </is>
       </c>
       <c r="G27" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H27" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" thickBot="1">
@@ -1366,10 +1435,13 @@
         </is>
       </c>
       <c r="G29" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H29" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" thickBot="1">
@@ -1394,10 +1466,13 @@
         </is>
       </c>
       <c r="G30" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H30" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1422,10 +1497,13 @@
         </is>
       </c>
       <c r="G31" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" thickBot="1">
@@ -1450,10 +1528,13 @@
         </is>
       </c>
       <c r="G32" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H32" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" thickBot="1">
@@ -1504,10 +1585,13 @@
         </is>
       </c>
       <c r="G34" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H34" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" thickBot="1">
@@ -1532,10 +1616,13 @@
         </is>
       </c>
       <c r="G35" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" thickBot="1">
@@ -1560,11 +1647,14 @@
         </is>
       </c>
       <c r="G36" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H36" s="32" t="n">
         <v>7</v>
       </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="inlineStr">
@@ -1588,10 +1678,13 @@
         </is>
       </c>
       <c r="G37" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H37" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" thickBot="1">
@@ -1616,10 +1709,13 @@
         </is>
       </c>
       <c r="G38" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H38" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" thickBot="1">
@@ -1644,11 +1740,14 @@
         </is>
       </c>
       <c r="G39" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H39" s="32" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="inlineStr">
@@ -1672,11 +1771,14 @@
         </is>
       </c>
       <c r="G40" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H40" s="32" t="n">
         <v>0</v>
       </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="inlineStr">
@@ -1724,10 +1826,13 @@
         </is>
       </c>
       <c r="G42" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H42" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" thickBot="1">
@@ -1752,11 +1857,14 @@
         </is>
       </c>
       <c r="G43" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H43" s="32" t="n">
         <v>7</v>
       </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="inlineStr">
@@ -1804,10 +1912,13 @@
         </is>
       </c>
       <c r="G45" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H45" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" thickBot="1">
@@ -1832,10 +1943,13 @@
         </is>
       </c>
       <c r="G46" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H46" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" thickBot="1">
@@ -1860,10 +1974,13 @@
         </is>
       </c>
       <c r="G47" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H47" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" thickBot="1">
@@ -1888,11 +2005,14 @@
         </is>
       </c>
       <c r="G48" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H48" s="32" t="n">
         <v>7</v>
       </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="inlineStr">
@@ -1916,10 +2036,13 @@
         </is>
       </c>
       <c r="G49" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H49" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" thickBot="1">
@@ -1944,10 +2067,13 @@
         </is>
       </c>
       <c r="G50" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H50" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" thickBot="1">
@@ -1972,10 +2098,13 @@
         </is>
       </c>
       <c r="G51" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H51" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" thickBot="1">
@@ -2000,10 +2129,13 @@
         </is>
       </c>
       <c r="G52" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H52" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" thickBot="1">
@@ -2028,10 +2160,13 @@
         </is>
       </c>
       <c r="G53" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H53" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" thickBot="1">
@@ -2056,10 +2191,13 @@
         </is>
       </c>
       <c r="G54" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H54" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1" thickBot="1">
@@ -2084,10 +2222,13 @@
         </is>
       </c>
       <c r="G55" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H55" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" thickBot="1">
@@ -2112,10 +2253,13 @@
         </is>
       </c>
       <c r="G56" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H56" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" thickBot="1">
@@ -2140,10 +2284,13 @@
         </is>
       </c>
       <c r="G57" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H57" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" thickBot="1">
@@ -2168,10 +2315,13 @@
         </is>
       </c>
       <c r="G58" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H58" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" thickBot="1">
@@ -2196,10 +2346,13 @@
         </is>
       </c>
       <c r="G59" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H59" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" thickBot="1">
@@ -2224,11 +2377,14 @@
         </is>
       </c>
       <c r="G60" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H60" s="32" t="n">
         <v>7</v>
       </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="inlineStr">
@@ -2278,10 +2434,13 @@
         </is>
       </c>
       <c r="G62" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" thickBot="1">
@@ -2306,10 +2465,13 @@
         </is>
       </c>
       <c r="G63" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H63" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" thickBot="1">
@@ -2334,11 +2496,14 @@
         </is>
       </c>
       <c r="G64" s="32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H64" s="32" t="n">
         <v>0</v>
       </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="inlineStr">
@@ -2362,10 +2527,13 @@
         </is>
       </c>
       <c r="G65" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H65" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" thickBot="1">
@@ -2390,10 +2558,13 @@
         </is>
       </c>
       <c r="G66" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" thickBot="1">
@@ -2466,10 +2637,13 @@
         </is>
       </c>
       <c r="G69" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H69" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" thickBot="1">
@@ -2494,10 +2668,13 @@
         </is>
       </c>
       <c r="G70" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H70" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" thickBot="1">
@@ -2522,10 +2699,13 @@
         </is>
       </c>
       <c r="G71" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H71" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" thickBot="1">
@@ -2550,10 +2730,13 @@
         </is>
       </c>
       <c r="G72" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" thickBot="1">
@@ -2578,10 +2761,13 @@
         </is>
       </c>
       <c r="G73" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" thickBot="1">
@@ -2606,10 +2792,13 @@
         </is>
       </c>
       <c r="G74" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H74" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" thickBot="1">
@@ -2634,10 +2823,13 @@
         </is>
       </c>
       <c r="G75" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H75" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" thickBot="1">
@@ -2662,10 +2854,13 @@
         </is>
       </c>
       <c r="G76" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H76" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1" thickBot="1">
@@ -2690,10 +2885,13 @@
         </is>
       </c>
       <c r="G77" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H77" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" thickBot="1">
@@ -2718,10 +2916,13 @@
         </is>
       </c>
       <c r="G78" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H78" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" thickBot="1">
@@ -2746,10 +2947,13 @@
         </is>
       </c>
       <c r="G79" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H79" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" thickBot="1">
@@ -2774,10 +2978,13 @@
         </is>
       </c>
       <c r="G80" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H80" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1" thickBot="1">
@@ -2802,10 +3009,13 @@
         </is>
       </c>
       <c r="G81" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H81" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" thickBot="1">
@@ -2830,10 +3040,13 @@
         </is>
       </c>
       <c r="G82" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H82" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" thickBot="1">
@@ -2858,10 +3071,13 @@
         </is>
       </c>
       <c r="G83" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H83" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1" thickBot="1">
@@ -2886,10 +3102,13 @@
         </is>
       </c>
       <c r="G84" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H84" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1" thickBot="1">
@@ -2913,12 +3132,15 @@
           <t>f20212087@goa.bits-pilani.ac.in</t>
         </is>
       </c>
-      <c r="G85" s="32" t="inlineStr">
+      <c r="G85" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H85" s="33" t="inlineStr">
         <is>
           <t>FILL</t>
         </is>
       </c>
-      <c r="H85" s="33" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>FILL</t>
         </is>
@@ -2946,10 +3168,13 @@
         </is>
       </c>
       <c r="G86" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H86" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1" thickBot="1">
@@ -2974,10 +3199,13 @@
         </is>
       </c>
       <c r="G87" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H87" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" thickBot="1">
@@ -3002,10 +3230,13 @@
         </is>
       </c>
       <c r="G88" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H88" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" thickBot="1">
@@ -3030,10 +3261,13 @@
         </is>
       </c>
       <c r="G89" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H89" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" thickBot="1">
@@ -3084,10 +3318,13 @@
         </is>
       </c>
       <c r="G91" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H91" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" thickBot="1">
@@ -3111,12 +3348,15 @@
           <t>f20211764@goa.bits-pilani.ac.in</t>
         </is>
       </c>
-      <c r="G92" s="32" t="inlineStr">
+      <c r="G92" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H92" s="33" t="inlineStr">
         <is>
           <t>FILL</t>
         </is>
       </c>
-      <c r="H92" s="33" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>FILL</t>
         </is>
@@ -3144,10 +3384,13 @@
         </is>
       </c>
       <c r="G93" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H93" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" thickBot="1">
@@ -3172,10 +3415,13 @@
         </is>
       </c>
       <c r="G94" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H94" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1" thickBot="1">
@@ -3200,10 +3446,13 @@
         </is>
       </c>
       <c r="G95" s="32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H95" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1" thickBot="1">
@@ -3228,10 +3477,13 @@
         </is>
       </c>
       <c r="G96" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H96" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" thickBot="1">
@@ -3256,10 +3508,13 @@
         </is>
       </c>
       <c r="G97" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H97" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" thickBot="1">
@@ -3284,10 +3539,13 @@
         </is>
       </c>
       <c r="G98" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H98" s="32" t="n">
         <v>10</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1"/>
